--- a/AuditoriumsRusNames.xlsx
+++ b/AuditoriumsRusNames.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llonan\Desktop\Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93189CE-E749-459D-A9A7-F9628337E7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3430EB-9BBF-4D52-90FB-C8DF01D821CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{3CAD19D4-59C0-4568-B287-6D1A91D2A400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" activeTab="1" xr2:uid="{3CAD19D4-59C0-4568-B287-6D1A91D2A400}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name=" N3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="146">
   <si>
     <t>EngName</t>
   </si>
@@ -203,13 +204,285 @@
   </si>
   <si>
     <t>Лестница #1 2 этаж А</t>
+  </si>
+  <si>
+    <t>n-301</t>
+  </si>
+  <si>
+    <t>n-302</t>
+  </si>
+  <si>
+    <t>n-304</t>
+  </si>
+  <si>
+    <t>n-305</t>
+  </si>
+  <si>
+    <t>n-306</t>
+  </si>
+  <si>
+    <t>n-307</t>
+  </si>
+  <si>
+    <t>n-308</t>
+  </si>
+  <si>
+    <t>n-309</t>
+  </si>
+  <si>
+    <t>n-310</t>
+  </si>
+  <si>
+    <t>n-311</t>
+  </si>
+  <si>
+    <t>n-312</t>
+  </si>
+  <si>
+    <t>n-313</t>
+  </si>
+  <si>
+    <t>n-314</t>
+  </si>
+  <si>
+    <t>n-315</t>
+  </si>
+  <si>
+    <t>n-316</t>
+  </si>
+  <si>
+    <t>n-317</t>
+  </si>
+  <si>
+    <t>n-318</t>
+  </si>
+  <si>
+    <t>n-319</t>
+  </si>
+  <si>
+    <t>n-320</t>
+  </si>
+  <si>
+    <t>n-321</t>
+  </si>
+  <si>
+    <t>n-322</t>
+  </si>
+  <si>
+    <t>n-323</t>
+  </si>
+  <si>
+    <t>n-324</t>
+  </si>
+  <si>
+    <t>n-325</t>
+  </si>
+  <si>
+    <t>n-326</t>
+  </si>
+  <si>
+    <t>n-327</t>
+  </si>
+  <si>
+    <t>Н301</t>
+  </si>
+  <si>
+    <t>Н302</t>
+  </si>
+  <si>
+    <t>Н304</t>
+  </si>
+  <si>
+    <t>Н305</t>
+  </si>
+  <si>
+    <t>Н306</t>
+  </si>
+  <si>
+    <t>Н307</t>
+  </si>
+  <si>
+    <t>Н308</t>
+  </si>
+  <si>
+    <t>Н309</t>
+  </si>
+  <si>
+    <t>Н310</t>
+  </si>
+  <si>
+    <t>Н311</t>
+  </si>
+  <si>
+    <t>Н312</t>
+  </si>
+  <si>
+    <t>Н313</t>
+  </si>
+  <si>
+    <t>Н314</t>
+  </si>
+  <si>
+    <t>Н315</t>
+  </si>
+  <si>
+    <t>Н316</t>
+  </si>
+  <si>
+    <t>Н317</t>
+  </si>
+  <si>
+    <t>Н318</t>
+  </si>
+  <si>
+    <t>Н319</t>
+  </si>
+  <si>
+    <t>Н320</t>
+  </si>
+  <si>
+    <t>Н321</t>
+  </si>
+  <si>
+    <t>Н322</t>
+  </si>
+  <si>
+    <t>Н323</t>
+  </si>
+  <si>
+    <t>Н324</t>
+  </si>
+  <si>
+    <t>Н325</t>
+  </si>
+  <si>
+    <t>Н326</t>
+  </si>
+  <si>
+    <t>Н327</t>
+  </si>
+  <si>
+    <t>n-303a</t>
+  </si>
+  <si>
+    <t>n-303b</t>
+  </si>
+  <si>
+    <t>Н303А</t>
+  </si>
+  <si>
+    <t>Н303Б</t>
+  </si>
+  <si>
+    <t>n-3-stair-1</t>
+  </si>
+  <si>
+    <t>n-3-stair-2</t>
+  </si>
+  <si>
+    <t>n-3-stair-3</t>
+  </si>
+  <si>
+    <t>n-3-lift-1</t>
+  </si>
+  <si>
+    <t>n-3-lift-2</t>
+  </si>
+  <si>
+    <t>n-3-lift-3</t>
+  </si>
+  <si>
+    <t>n-3-lift-4</t>
+  </si>
+  <si>
+    <t>n-3-lift-5</t>
+  </si>
+  <si>
+    <t>n-3-lift-6</t>
+  </si>
+  <si>
+    <t>n-3-lift-7</t>
+  </si>
+  <si>
+    <t>n-3-wcm-1</t>
+  </si>
+  <si>
+    <t>n-3-wcw-1</t>
+  </si>
+  <si>
+    <t>Мужской туалет Н3</t>
+  </si>
+  <si>
+    <t>Лестница #1 Н3</t>
+  </si>
+  <si>
+    <t>Лестница #2 Н3</t>
+  </si>
+  <si>
+    <t>Лестница #3 Н3</t>
+  </si>
+  <si>
+    <t>Лифт #1 Н3</t>
+  </si>
+  <si>
+    <t>Лифт #2 Н3</t>
+  </si>
+  <si>
+    <t>Лифт #3 Н3</t>
+  </si>
+  <si>
+    <t>Лифт #4 Н3</t>
+  </si>
+  <si>
+    <t>Лифт #5 Н3</t>
+  </si>
+  <si>
+    <t>Лифт #6 Н3</t>
+  </si>
+  <si>
+    <t>Лифт #7 Н3</t>
+  </si>
+  <si>
+    <t>Женский туалет Н3</t>
+  </si>
+  <si>
+    <t>Факультет информационных технологий</t>
+  </si>
+  <si>
+    <t>Научно-образовательный центр инфокогнитивных технологий</t>
+  </si>
+  <si>
+    <t>Центр компетенций WordSkills "Мобильная робототехника"</t>
+  </si>
+  <si>
+    <t>Экспертно-аналитический центр</t>
+  </si>
+  <si>
+    <t>Деканат "Транспортного факультета"</t>
+  </si>
+  <si>
+    <t>Отдел по работе и иностранными обучающимися</t>
+  </si>
+  <si>
+    <t>Центр компетенций WordSkills "Интернет вещей"</t>
+  </si>
+  <si>
+    <t>Управление по международной интеграции и работе с иностранными студентами
+Отдел международных программ</t>
+  </si>
+  <si>
+    <t>Департамент по работе с филиалами</t>
+  </si>
+  <si>
+    <t>Управление по международной интеграции и работе с иностранными студентами
+Подготовительное отделение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +495,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -248,10 +528,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -568,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1AD22E-01C0-477B-BB03-8D16ADADF66C}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -576,8 +860,8 @@
   <cols>
     <col min="1" max="1" width="12.453125" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.1796875" style="1" customWidth="1"/>
     <col min="5" max="9" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -926,6 +1210,558 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0C19C1-A3CC-4B2A-B9DE-4BB2DCFC2A44}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.1796875" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D41" si="0">"['"&amp;A2&amp;"','"&amp;B2&amp;"']"</f>
+        <v>['n-301','Н301']</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-302','Н302']</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-303a','Н303А']</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-303b','Н303Б']</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-304','Н304']</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-305','Н305']</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-306','Н306']</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-307','Н307']</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-308','Н308']</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-309','Н309']</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-310','Н310']</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-311','Н311']</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-312','Н312']</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-313','Н313']</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-314','Н314']</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-315','Н315']</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-316','Н316']</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-317','Н317']</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-318','Н318']</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-319','Н319']</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-320','Н320']</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-321','Н321']</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-322','Н322']</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-323','Н323']</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-324','Н324']</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-325','Н325']</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-326','Н326']</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-327','Н327']</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-3-stair-1','Лестница #1 Н3']</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-3-stair-2','Лестница #2 Н3']</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-3-stair-3','Лестница #3 Н3']</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-3-lift-1','Лифт #1 Н3']</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-3-lift-2','Лифт #2 Н3']</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-3-lift-3','Лифт #3 Н3']</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-3-lift-4','Лифт #4 Н3']</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-3-lift-5','Лифт #5 Н3']</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-3-lift-6','Лифт #6 Н3']</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-3-lift-7','Лифт #7 Н3']</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-3-wcm-1','Мужской туалет Н3']</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-3-wcw-1','Женский туалет Н3']</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,D:D)</f>
+        <v>['n-301','Н301'],['n-302','Н302'],['n-303a','Н303А'],['n-303b','Н303Б'],['n-304','Н304'],['n-305','Н305'],['n-306','Н306'],['n-307','Н307'],['n-308','Н308'],['n-309','Н309'],['n-310','Н310'],['n-311','Н311'],['n-312','Н312'],['n-313','Н313'],['n-314','Н314'],['n-315','Н315'],['n-316','Н316'],['n-317','Н317'],['n-318','Н318'],['n-319','Н319'],['n-320','Н320'],['n-321','Н321'],['n-322','Н322'],['n-323','Н323'],['n-324','Н324'],['n-325','Н325'],['n-326','Н326'],['n-327','Н327'],['n-3-stair-1','Лестница #1 Н3'],['n-3-stair-2','Лестница #2 Н3'],['n-3-stair-3','Лестница #3 Н3'],['n-3-lift-1','Лифт #1 Н3'],['n-3-lift-2','Лифт #2 Н3'],['n-3-lift-3','Лифт #3 Н3'],['n-3-lift-4','Лифт #4 Н3'],['n-3-lift-5','Лифт #5 Н3'],['n-3-lift-6','Лифт #6 Н3'],['n-3-lift-7','Лифт #7 Н3'],['n-3-wcm-1','Мужской туалет Н3'],['n-3-wcw-1','Женский туалет Н3']</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6388B3A5-9A2D-40AC-824E-06948E315277}">
   <dimension ref="A1:B27"/>
   <sheetViews>

--- a/AuditoriumsRusNames.xlsx
+++ b/AuditoriumsRusNames.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llonan\Desktop\Navigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llonan\Desktop\nav2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3430EB-9BBF-4D52-90FB-C8DF01D821CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85346B34-F9B9-4041-9D0F-2F72430B3BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" activeTab="1" xr2:uid="{3CAD19D4-59C0-4568-B287-6D1A91D2A400}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{3CAD19D4-59C0-4568-B287-6D1A91D2A400}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name=" N3" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name=" N3 (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="197">
   <si>
     <t>EngName</t>
   </si>
@@ -476,6 +477,159 @@
   <si>
     <t>Управление по международной интеграции и работе с иностранными студентами
 Подготовительное отделение</t>
+  </si>
+  <si>
+    <t>n-401</t>
+  </si>
+  <si>
+    <t>n-402</t>
+  </si>
+  <si>
+    <t>n-405</t>
+  </si>
+  <si>
+    <t>n-406</t>
+  </si>
+  <si>
+    <t>n-407</t>
+  </si>
+  <si>
+    <t>n-408</t>
+  </si>
+  <si>
+    <t>n-409</t>
+  </si>
+  <si>
+    <t>n-410</t>
+  </si>
+  <si>
+    <t>n-411</t>
+  </si>
+  <si>
+    <t>n-415</t>
+  </si>
+  <si>
+    <t>n-416</t>
+  </si>
+  <si>
+    <t>n-418</t>
+  </si>
+  <si>
+    <t>n-419</t>
+  </si>
+  <si>
+    <t>n-4-stair-1</t>
+  </si>
+  <si>
+    <t>n-4-stair-2</t>
+  </si>
+  <si>
+    <t>n-4-stair-3</t>
+  </si>
+  <si>
+    <t>n-4-lift-1</t>
+  </si>
+  <si>
+    <t>n-4-lift-2</t>
+  </si>
+  <si>
+    <t>n-4-lift-3</t>
+  </si>
+  <si>
+    <t>n-4-wcm-1</t>
+  </si>
+  <si>
+    <t>n-4-wcw-1</t>
+  </si>
+  <si>
+    <t>Н401</t>
+  </si>
+  <si>
+    <t>Н402</t>
+  </si>
+  <si>
+    <t>Н405</t>
+  </si>
+  <si>
+    <t>Н406</t>
+  </si>
+  <si>
+    <t>Н407</t>
+  </si>
+  <si>
+    <t>Н408</t>
+  </si>
+  <si>
+    <t>Н409</t>
+  </si>
+  <si>
+    <t>Н410</t>
+  </si>
+  <si>
+    <t>Н411</t>
+  </si>
+  <si>
+    <t>Н415</t>
+  </si>
+  <si>
+    <t>Н418</t>
+  </si>
+  <si>
+    <t>Н419</t>
+  </si>
+  <si>
+    <t>Лестница #1 Н4</t>
+  </si>
+  <si>
+    <t>Лестница #2 Н4</t>
+  </si>
+  <si>
+    <t>Лестница #3 Н4</t>
+  </si>
+  <si>
+    <t>Лифт #1 Н4</t>
+  </si>
+  <si>
+    <t>Лифт #2 Н4</t>
+  </si>
+  <si>
+    <t>Лифт #3 Н4</t>
+  </si>
+  <si>
+    <t>Мужской туалет Н4</t>
+  </si>
+  <si>
+    <t>Женский туалет Н4</t>
+  </si>
+  <si>
+    <t>n-4-cowork-1</t>
+  </si>
+  <si>
+    <t>Коворкинг Н4</t>
+  </si>
+  <si>
+    <t>Библиотека Н416</t>
+  </si>
+  <si>
+    <t>n-4-u-6</t>
+  </si>
+  <si>
+    <t>Помещение Н4</t>
+  </si>
+  <si>
+    <t>n-4-u-1</t>
+  </si>
+  <si>
+    <t>n-4-u-2</t>
+  </si>
+  <si>
+    <t>n-4-u-3</t>
+  </si>
+  <si>
+    <t>n-4-u-4</t>
+  </si>
+  <si>
+    <t>n-4-u-5</t>
   </si>
 </sst>
 </file>
@@ -508,12 +662,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -528,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -536,6 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -856,16 +1017,16 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.1796875" style="1" customWidth="1"/>
-    <col min="5" max="9" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="43.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -885,7 +1046,7 @@
         <v>['a-2-stair-1','Лестница #1 2 этаж А']</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -897,7 +1058,7 @@
         <v>['a-204','А204']</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -909,7 +1070,7 @@
         <v>['a-203','А203']</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -921,7 +1082,7 @@
         <v>['a-205','А205']</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -933,7 +1094,7 @@
         <v>['a-206','А206']</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -945,7 +1106,7 @@
         <v>['a-207','А207']</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -957,7 +1118,7 @@
         <v>['a-208','А208']</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -969,7 +1130,7 @@
         <v>['a-209','А209']</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -981,7 +1142,7 @@
         <v>['a-210','А210']</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -993,7 +1154,7 @@
         <v>['a-200','А200']</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1005,7 +1166,7 @@
         <v>['a-224','А224']</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1017,7 +1178,7 @@
         <v>['a-216','А216']</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +1190,7 @@
         <v>['a-215','А215']</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1041,7 +1202,7 @@
         <v>['a-211','А211']</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1214,7 @@
         <v>['a-218','А218']</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1065,7 +1226,7 @@
         <v>['a-219','А219']</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1077,7 +1238,7 @@
         <v>['a-220','А220']</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1089,7 +1250,7 @@
         <v>['a-221','А221']</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1101,7 +1262,7 @@
         <v>['a-212','А212']</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1113,7 +1274,7 @@
         <v>['a-2-wc-2','Туалет Ж']</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1125,7 +1286,7 @@
         <v>['a-214','А214']</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1137,7 +1298,7 @@
         <v>['a-202','А202']</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1149,7 +1310,7 @@
         <v>['a-201','А201']</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1161,7 +1322,7 @@
         <v>['a-2-wc-1','Туалет М']</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1173,7 +1334,7 @@
         <v>['a-2-stair-2','Лестница #2 2 этаж А']</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1185,7 +1346,7 @@
         <v>['a-2-stair-4','Лестница #4 2 этаж А']</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1197,7 +1358,7 @@
         <v>['a-2-stair-3','Лестница #3 2 этаж А']</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E29" s="2" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,D2:D28)</f>
         <v>['a-2-stair-1','Лестница #1 2 этаж А'],['a-204','А204'],['a-203','А203'],['a-205','А205'],['a-206','А206'],['a-207','А207'],['a-208','А208'],['a-209','А209'],['a-210','А210'],['a-200','А200'],['a-224','А224'],['a-216','А216'],['a-215','А215'],['a-211','А211'],['a-218','А218'],['a-219','А219'],['a-220','А220'],['a-221','А221'],['a-212','А212'],['a-2-wc-2','Туалет Ж'],['a-214','А214'],['a-202','А202'],['a-201','А201'],['a-2-wc-1','Туалет М'],['a-2-stair-2','Лестница #2 2 этаж А'],['a-2-stair-4','Лестница #4 2 этаж А'],['a-2-stair-3','Лестница #3 2 этаж А']</v>
@@ -1213,20 +1374,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0C19C1-A3CC-4B2A-B9DE-4BB2DCFC2A44}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.1796875" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="43.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1249,7 +1410,7 @@
         <v>['n-301','Н301']</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1264,7 +1425,7 @@
         <v>['n-302','Н302']</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -1276,7 +1437,7 @@
         <v>['n-303a','Н303А']</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -1291,7 +1452,7 @@
         <v>['n-303b','Н303Б']</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1303,7 +1464,7 @@
         <v>['n-304','Н304']</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1315,7 +1476,7 @@
         <v>['n-305','Н305']</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1327,7 +1488,7 @@
         <v>['n-306','Н306']</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1339,7 +1500,7 @@
         <v>['n-307','Н307']</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1351,7 +1512,7 @@
         <v>['n-308','Н308']</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -1363,7 +1524,7 @@
         <v>['n-309','Н309']</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1378,7 +1539,7 @@
         <v>['n-310','Н310']</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1390,7 +1551,7 @@
         <v>['n-311','Н311']</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1405,7 +1566,7 @@
         <v>['n-312','Н312']</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1420,7 +1581,7 @@
         <v>['n-313','Н313']</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -1435,7 +1596,7 @@
         <v>['n-314','Н314']</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1450,7 +1611,7 @@
         <v>['n-315','Н315']</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1462,7 +1623,7 @@
         <v>['n-316','Н316']</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1474,7 +1635,7 @@
         <v>['n-317','Н317']</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -1486,7 +1647,7 @@
         <v>['n-318','Н318']</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1498,7 +1659,7 @@
         <v>['n-319','Н319']</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -1510,7 +1671,7 @@
         <v>['n-320','Н320']</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -1522,7 +1683,7 @@
         <v>['n-321','Н321']</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -1534,7 +1695,7 @@
         <v>['n-322','Н322']</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1549,7 +1710,7 @@
         <v>['n-323','Н323']</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1564,7 +1725,7 @@
         <v>['n-324','Н324']</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1579,7 +1740,7 @@
         <v>['n-325','Н325']</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -1594,7 +1755,7 @@
         <v>['n-326','Н326']</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -1606,7 +1767,7 @@
         <v>['n-327','Н327']</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -1618,7 +1779,7 @@
         <v>['n-3-stair-1','Лестница #1 Н3']</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -1630,7 +1791,7 @@
         <v>['n-3-stair-2','Лестница #2 Н3']</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -1642,7 +1803,7 @@
         <v>['n-3-stair-3','Лестница #3 Н3']</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -1654,7 +1815,7 @@
         <v>['n-3-lift-1','Лифт #1 Н3']</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -1666,7 +1827,7 @@
         <v>['n-3-lift-2','Лифт #2 Н3']</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -1678,7 +1839,7 @@
         <v>['n-3-lift-3','Лифт #3 Н3']</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -1690,7 +1851,7 @@
         <v>['n-3-lift-4','Лифт #4 Н3']</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -1702,7 +1863,7 @@
         <v>['n-3-lift-5','Лифт #5 Н3']</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -1714,7 +1875,7 @@
         <v>['n-3-lift-6','Лифт #6 Н3']</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -1726,7 +1887,7 @@
         <v>['n-3-lift-7','Лифт #7 Н3']</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -1738,7 +1899,7 @@
         <v>['n-3-wcm-1','Мужской туалет Н3']</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -1762,6 +1923,390 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BF526C-C9F9-4673-89BC-17D15CD45D5E}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D29" si="0">"['"&amp;A2&amp;"','"&amp;B2&amp;"']"</f>
+        <v>['n-401','Н401']</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-402','Н402']</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-405','Н405']</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-406','Н406']</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-407','Н407']</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-408','Н408']</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-409','Н409']</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-410','Н410']</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-411','Н411']</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-415','Н415']</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-416','Библиотека Н416']</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-418','Н418']</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-419','Н419']</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-stair-1','Лестница #1 Н4']</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-stair-2','Лестница #2 Н4']</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-stair-3','Лестница #3 Н4']</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-lift-1','Лифт #1 Н4']</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-lift-2','Лифт #2 Н4']</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-lift-3','Лифт #3 Н4']</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-wcm-1','Мужской туалет Н4']</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-wcw-1','Женский туалет Н4']</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,D:D)</f>
+        <v>['n-401','Н401'],['n-402','Н402'],['n-405','Н405'],['n-406','Н406'],['n-407','Н407'],['n-408','Н408'],['n-409','Н409'],['n-410','Н410'],['n-411','Н411'],['n-415','Н415'],['n-416','Библиотека Н416'],['n-418','Н418'],['n-419','Н419'],['n-4-stair-1','Лестница #1 Н4'],['n-4-stair-2','Лестница #2 Н4'],['n-4-stair-3','Лестница #3 Н4'],['n-4-lift-1','Лифт #1 Н4'],['n-4-lift-2','Лифт #2 Н4'],['n-4-lift-3','Лифт #3 Н4'],['n-4-wcm-1','Мужской туалет Н4'],['n-4-wcw-1','Женский туалет Н4'],['n-4-cowork-1','Коворкинг Н4'],['n-4-u-1','Помещение Н4'],['n-4-u-2','Помещение Н4'],['n-4-u-3','Помещение Н4'],['n-4-u-4','Помещение Н4'],['n-4-u-5','Помещение Н4'],['n-4-u-6','Помещение Н4']</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-cowork-1','Коворкинг Н4']</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-u-1','Помещение Н4']</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-u-2','Помещение Н4']</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-u-3','Помещение Н4']</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-u-4','Помещение Н4']</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-u-5','Помещение Н4']</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>['n-4-u-6','Помещение Н4']</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6388B3A5-9A2D-40AC-824E-06948E315277}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -1769,14 +2314,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1784,7 +2329,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1792,7 +2337,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1800,117 +2345,117 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
